--- a/Inputs/Now_Health_Worldcare_UAE/info.xlsx
+++ b/Inputs/Now_Health_Worldcare_UAE/info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">provider</t>
   </si>
@@ -49,10 +49,13 @@
     <t xml:space="preserve">insurerName</t>
   </si>
   <si>
+    <t xml:space="preserve">copayTypes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Now_Health_Worldcare</t>
   </si>
   <si>
-    <t xml:space="preserve">NE_Dubai/AbuDhabi</t>
+    <t xml:space="preserve">NE_Dubai/</t>
   </si>
   <si>
     <t xml:space="preserve">2025-05-01</t>
@@ -70,6 +73,7 @@
         <color rgb="FF222222"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Chronic Condition Cover/</t>
     </r>
@@ -77,8 +81,8 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF222222"/>
-        <rFont val=""/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Out-patient Consultations</t>
@@ -89,27 +93,38 @@
         <color rgb="FF222222"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">/Out-patient Specialists/Out-patient Medicines/Vaccination/Scans &amp; Diagnostic Tests/Physiotherapy
-</t>
+      <t xml:space="preserve">/Out-patient Specialists/Out-patient Medicines/Vaccination/Scans &amp; Diagnostic Tests/Physiotherapy/Dental/Optical Benefits/Alternative Medicines/Mental Health Benefit/Vaccination/</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val=""/>
-        <family val="1"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
+      <t xml:space="preserve">Maternity (Consultations, Scans and Delivery)/</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Wellness &amp; Health Screening</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">standard</t>
   </si>
   <si>
     <t xml:space="preserve">Now Health Worldcare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP/OP</t>
   </si>
 </sst>
 </file>
@@ -120,7 +135,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -147,13 +162,27 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF222222"/>
-      <name val=""/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -226,7 +255,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -309,11 +338,11 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.01"/>
@@ -352,36 +381,41 @@
       <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="80.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="61.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
